--- a/truss_PCB/MiniTruss PCB Verson 2.0 Fabrication/truss_PCB_withJLCPCB_codes.xlsx
+++ b/truss_PCB/MiniTruss PCB Verson 2.0 Fabrication/truss_PCB_withJLCPCB_codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheard\Documents\KiCad\Projects\truss_PCB\truss_PCB\MiniTruss PCB Verson 2.0 Fabrication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheard\Documents\0000.KiCad\Projects\truss_PCB\truss_PCB\MiniTruss PCB Verson 2.0 Fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,9 +399,6 @@
     <t>C2296</t>
   </si>
   <si>
-    <t>C138555</t>
-  </si>
-  <si>
     <t>C84260</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>C6186</t>
+  </si>
+  <si>
+    <t>C84259</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>55</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>64</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>68</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>73</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>73</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>73</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>73</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>73</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>73</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>94</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>98</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -2141,7 +2141,7 @@
         <v>102</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>106</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
